--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20202.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20202.xlsx
@@ -1318,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1364,7 +1364,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1479,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1502,7 +1502,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1525,7 +1525,7 @@
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1548,7 +1548,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1571,7 +1571,7 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1594,7 +1594,7 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
